--- a/Logical operators/or/or_updated_dataframe.xlsx
+++ b/Logical operators/or/or_updated_dataframe.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kendu\Desktop\Sasha_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kendu\Desktop\Sasha_code\Stable-Diffusion-Experiments\Logical operators\or\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40621559-B7AC-476A-A716-A004DDBE320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D227CF4-4AD8-4D3B-AAEE-44BAA69E3C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{47695DDE-28C4-42AC-9946-731B729C78D1}"/>
   </bookViews>
   <sheets>
     <sheet name="or_updated_dataframe" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">or_updated_dataframe!$A$2:$I$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="162">
   <si>
     <t>id</t>
   </si>
@@ -506,9 +509,6 @@
     <t>All words are mixed</t>
   </si>
   <si>
-    <t>See how it adds up words</t>
-  </si>
-  <si>
     <t>also unites</t>
   </si>
   <si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>ALL OR</t>
+  </si>
+  <si>
+    <t>ALL EITHER... OR</t>
   </si>
 </sst>
 </file>
@@ -1000,13 +1006,18 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1394,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787395C9-802D-4213-8575-1921AF81C9BD}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1406,31 +1417,32 @@
     <col min="3" max="3" width="12.7890625" customWidth="1"/>
     <col min="4" max="4" width="17.26171875" customWidth="1"/>
     <col min="5" max="5" width="16.5234375" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1497,7 +1509,7 @@
         <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1587,103 +1599,124 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f>COUNTIF($H$2:$H$26, TRUE)</f>
+        <v>18</v>
+      </c>
+      <c r="K7" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f>COUNTA($H$2:$H$26)</f>
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+      <c r="K8" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <f>J7/J8</f>
+        <v>0.72</v>
+      </c>
+      <c r="K9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1691,19 +1724,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1712,50 +1745,57 @@
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <f>COUNTIF($H$27:$H$51, TRUE)</f>
+        <v>19</v>
+      </c>
+      <c r="K12" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -1765,55 +1805,69 @@
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <f>COUNTA($H$27:$H$51)</f>
+        <v>25</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <f>J12/J13</f>
+        <v>0.76</v>
+      </c>
+      <c r="K14" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1821,45 +1875,45 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1871,99 +1925,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1975,47 +2032,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2027,21 +2084,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -2053,47 +2110,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -2105,151 +2162,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -2263,100 +2324,97 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2370,25 +2428,25 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -2396,19 +2454,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -2422,19 +2480,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -2444,52 +2502,49 @@
       </c>
       <c r="H39" t="b">
         <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -2503,19 +2558,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -2529,19 +2584,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -2555,45 +2610,48 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -2607,19 +2665,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -2682,9 +2740,6 @@
       <c r="H48" t="b">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
@@ -2764,20 +2819,24 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F53" t="s">
-        <v>159</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:H1048576">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K52">
+    <sortCondition descending="1" ref="C3:C52"/>
+  </sortState>
+  <conditionalFormatting sqref="F2:H51 F53:H1048576 G1:I1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>